--- a/IPC2024_base2010/indprod_1_2024.xlsx
+++ b/IPC2024_base2010/indprod_1_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>190.3359896361605</v>
+        <v>190.2642716986821</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.7281020174519</v>
+        <v>155.2015555260295</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>354.8667078045926</v>
+        <v>354.8448413284016</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>484.5570001177906</v>
+        <v>484.7021161279222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>550.5826475895069</v>
+        <v>515.2367903915175</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>182.3046927117145</v>
+        <v>180.0115519228879</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.9606163379036</v>
+        <v>154.9895768590238</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>670.75218514448</v>
+        <v>673.748286473992</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>364.3172239615706</v>
+        <v>383.7019728894239</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>120.1722647990754</v>
+        <v>121.5035853349406</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>117.8377062929355</v>
+        <v>118.6892482425591</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>136.5220759967912</v>
+        <v>140.4930806638162</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>138.896635859255</v>
+        <v>135.0704277086682</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>119.9435719213676</v>
+        <v>119.9891600173872</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.3567052144826</v>
+        <v>134.3326155440244</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>129.749472004551</v>
+        <v>129.9890421811608</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>158.2987238025991</v>
+        <v>148.8147239537289</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>128.9559589058384</v>
+        <v>127.2130971641771</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>135.5996517657354</v>
+        <v>137.8632933113001</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>138.5356408694001</v>
+        <v>137.7822030444196</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>134.1355720539999</v>
+        <v>128.4654694121766</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>125.8265098523413</v>
+        <v>128.2596088288712</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>132.3386706271776</v>
+        <v>133.8458597992697</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>93.46063553284237</v>
+        <v>92.09720447039862</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>95.11240778678798</v>
+        <v>95.05266221060999</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>83.24123278528683</v>
+        <v>82.11621335089112</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>120.5027467771931</v>
+        <v>118.8585584362236</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>114.7323575508408</v>
+        <v>126.0309170113129</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>109.5924861325384</v>
+        <v>110.2340361548296</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>121.7977724244591</v>
+        <v>124.4508713669622</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>126.8136127510276</v>
+        <v>127.3298126448159</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.9405409952795</v>
+        <v>228.8002678138808</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>112.3364558513073</v>
+        <v>112.6167904130134</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>151.0765352730708</v>
+        <v>150.2693051643177</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>131.8886528946519</v>
+        <v>128.6187873701232</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>127.4768366701283</v>
+        <v>132.7284020107692</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>106.8745260369328</v>
+        <v>111.0506009750682</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>119.7225796332061</v>
+        <v>120.2981778067624</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>110.3445067453738</v>
+        <v>109.7280441243184</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>141.1194907667752</v>
+        <v>132.7985251888791</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.5652744791596</v>
+        <v>173.478221173582</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>145.7307621900677</v>
+        <v>145.9685479622371</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>152.3542983243794</v>
+        <v>152.3079629040224</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>319.8686390118012</v>
+        <v>319.9102589065799</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>377.9212125960071</v>
+        <v>353.6597338316624</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>190.1515172579898</v>
+        <v>187.7596742736126</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>167.3355980689045</v>
+        <v>167.3901431687352</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>216.0982738331745</v>
+        <v>217.0635369212065</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1039.13303404257</v>
+        <v>1143.498512615324</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>122.184196579718</v>
+        <v>123.8912550781115</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>116.1883237540192</v>
+        <v>117.0279466119781</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>142.4576924317925</v>
+        <v>146.6013458107051</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>137.343947452983</v>
+        <v>133.5605114616976</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.1794311290324</v>
+        <v>121.2787222635385</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9533638547951</v>
+        <v>141.9256170355768</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.200463</v>
+        <v>134.4482515121638</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>194.1354933872261</v>
+        <v>182.5044394803053</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>139.391864</v>
+        <v>137.5079592240923</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>137.4022659730382</v>
+        <v>139.4623360260971</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>143.246731</v>
+        <v>142.467671512038</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>161.6851702670223</v>
+        <v>154.8505066723003</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>132.403463864892</v>
+        <v>134.9637409702232</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>142.3797539376779</v>
+        <v>144.0012997975766</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>84.35201031316957</v>
+        <v>83.12145853717468</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>91.1689546453666</v>
+        <v>91.1116861790163</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>88.68071557620151</v>
+        <v>87.48218060571774</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>120.4357740866434</v>
+        <v>118.7924995482212</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>113.6412070504635</v>
+        <v>124.8323127021583</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>107.1328382324602</v>
+        <v>107.759989574506</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>120.6244824935759</v>
+        <v>123.6301037980877</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>134.2279023064861</v>
+        <v>134.925574738191</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.6872454915479</v>
+        <v>294.5066889275465</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.0917724145195</v>
+        <v>112.3714963710263</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>166.8586136891051</v>
+        <v>165.6530866771205</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>139.722785233294</v>
+        <v>136.7719870053035</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>139.3095967606622</v>
+        <v>145.04862723143</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>102.018291</v>
+        <v>106.0046106972615</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>122.0976699958697</v>
+        <v>122.6846870486296</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>111.7523903583341</v>
+        <v>111.1280623015829</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>143.5371451792424</v>
+        <v>135.073625096394</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>240.8284380271677</v>
+        <v>240.7533360859749</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>161.3857460658616</v>
+        <v>161.5107994284675</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>231.129051233453</v>
+        <v>231.115406946693</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>641.6948346967115</v>
+        <v>641.8152907827698</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1424.774302835238</v>
+        <v>1333.307800452973</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>153.2785564383754</v>
+        <v>151.3505242819178</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>134.7261301641119</v>
+        <v>134.7428797111656</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>458.5960175493339</v>
+        <v>460.6444643055565</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>229.8604833249634</v>
+        <v>235.1538455780046</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>113.4830921012877</v>
+        <v>114.2218017836472</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>153.6933853377023</v>
+        <v>154.8040346291046</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>125.55111</v>
+        <v>129.2030032203455</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>175.97069</v>
+        <v>171.1231968683115</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3143563575878</v>
+        <v>120.3369202155674</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.1913955160916</v>
+        <v>123.171601307643</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.303717</v>
+        <v>102.4926111756054</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>140.923767121705</v>
+        <v>132.4807364138192</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>133.7779403111611</v>
+        <v>131.9699086697786</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>139.19785</v>
+        <v>140.6786898859526</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>143.3102534176958</v>
+        <v>142.530848457681</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>130.6983843163767</v>
+        <v>125.1735765204553</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>120.063948</v>
+        <v>122.3856166955694</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>117.345154</v>
+        <v>118.6815838180426</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>95.895421</v>
+        <v>94.49647057566253</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.40810616613385</v>
+        <v>92.35005931741155</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>65.303793</v>
+        <v>64.42120111847106</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>95.54013683994442</v>
+        <v>94.23654847131314</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>132.472014</v>
+        <v>145.5175310535848</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>107.004161</v>
+        <v>107.6305590706832</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>123.8106546965028</v>
+        <v>125.246863012776</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.2621801333104</v>
+        <v>117.6149915592995</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.846198</v>
+        <v>150.7537736700697</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>117.9389816780355</v>
+        <v>118.233297289884</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>139.2556524122291</v>
+        <v>138.7319525238103</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>106.3050482272678</v>
+        <v>102.2675366544456</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>121.131023</v>
+        <v>126.1211647283305</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>110.702191</v>
+        <v>115.0278302573103</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>118.4626330765335</v>
+        <v>119.0321737216017</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>101.394609</v>
+        <v>100.8281468509664</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>120.118087</v>
+        <v>113.0354475872659</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>200.9999167787311</v>
+        <v>200.9165491891713</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.2636493337083</v>
+        <v>158.6984201846011</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>167.8391888547045</v>
+        <v>167.829475171516</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>468.3026803939655</v>
+        <v>468.4928774539881</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>354.87030652075</v>
+        <v>332.0886310847291</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>182.7357237013673</v>
+        <v>180.437161139086</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>152.0921308359171</v>
+        <v>152.1093630378763</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>379.7728423202942</v>
+        <v>381.4692034250192</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>332.9510430240341</v>
+        <v>344.3646753607727</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>126.8292482616633</v>
+        <v>128.9113162036782</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>132.7244821776499</v>
+        <v>133.683601867534</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>156.0996339363473</v>
+        <v>160.6400891730278</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>137.725888</v>
+        <v>133.9319306305329</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.0389442017049</v>
+        <v>133.0239396250329</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>152.0045974429417</v>
+        <v>142.8976915592648</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>121.2047897679206</v>
+        <v>119.5666863969328</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>139.2660654151207</v>
+        <v>141.5422219768953</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>149.4283818814179</v>
+        <v>148.615702961188</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>145.611662</v>
+        <v>139.4564486084763</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>118.751265</v>
+        <v>120.103708846776</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>101.5623995385276</v>
+        <v>100.080777575252</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>98.09634017827285</v>
+        <v>98.03472022246181</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>56.54678740810382</v>
+        <v>55.78254794818553</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>142.3538384447969</v>
+        <v>156.3724931855247</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>130.0246891756027</v>
+        <v>130.7858484957602</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>112.9522817982912</v>
+        <v>114.9491435260857</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>121.3881525657851</v>
+        <v>121.8136319055324</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>194.1743572629663</v>
+        <v>194.055385521566</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>115.4463501240248</v>
+        <v>115.7344453974365</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>135.7933024916636</v>
+        <v>135.2081098540154</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>128.3711629209133</v>
+        <v>125.330180881485</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>126.401999</v>
+        <v>131.6092850785985</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>111.0174179032006</v>
+        <v>115.3553745126349</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>149.1183011984245</v>
+        <v>149.8352271289932</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>109.994843</v>
+        <v>109.3803338484494</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>144.4090798921614</v>
+        <v>135.8941470760828</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>266.5457057713616</v>
+        <v>266.4698473916434</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>187.4101716549381</v>
+        <v>188.2923888928549</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1167.375097709941</v>
+        <v>1167.363877812809</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1243.392794598368</v>
+        <v>1243.907371331399</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>2268.923014231685</v>
+        <v>2123.264539150108</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>196.0403651919813</v>
+        <v>193.5744486486859</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>174.2597925601996</v>
+        <v>174.2707285646809</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>363.9886138881002</v>
+        <v>365.6144703432118</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>68838.95727763517</v>
+        <v>76448.77753270532</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>123.155129144224</v>
+        <v>124.0479938382225</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>109.351183</v>
+        <v>110.1413979701895</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>129.4239672062838</v>
+        <v>133.1885098566104</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>132.021304</v>
+        <v>128.384491730999</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.3538661076704</v>
+        <v>134.3305043593909</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>155.4600756993977</v>
+        <v>146.1461450559831</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>113.551992</v>
+        <v>112.0173174938708</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>123.404081088855</v>
+        <v>125.5518301905272</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>131.344615</v>
+        <v>130.6302861787128</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>135.666571</v>
+        <v>129.9317508411497</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.9834526095696</v>
+        <v>107.9156219895278</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>63.2661614362411</v>
+        <v>62.41110849223943</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>103.795165410163</v>
+        <v>102.3789420843002</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>123.8887861228343</v>
+        <v>126.0279513465248</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.4504123551027</v>
+        <v>115.7951599733898</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.7687460163293</v>
+        <v>108.7021027823519</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>104.911456</v>
+        <v>105.1732615448948</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>156.01047706489</v>
+        <v>155.3308325976591</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>117.0390406971025</v>
+        <v>113.2398082797408</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>147.333643</v>
+        <v>153.4032339413829</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>121.122593</v>
+        <v>125.8554048666415</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>119.0709219294671</v>
+        <v>119.6433870851315</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>116.045569</v>
+        <v>115.3972562045775</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>143.441006</v>
+        <v>134.9831546649398</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>219.1166896190872</v>
+        <v>219.0479349128693</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>149.9149588333875</v>
+        <v>150.8011553124973</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>180.4444276444423</v>
+        <v>180.4381555601956</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>349.228377013742</v>
+        <v>349.3419967983721</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>645.2525008878497</v>
+        <v>603.8291054123869</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>189.3074537561355</v>
+        <v>186.926227922725</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.9774854397213</v>
+        <v>138.9871754326851</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>714.2935657893058</v>
+        <v>717.4841568146071</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>496.0726235748397</v>
+        <v>528.0668052205895</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>134.4972006744511</v>
+        <v>138.4093079851588</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>131.24278</v>
+        <v>127.6274138578674</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.1045345454713</v>
+        <v>118.1401110939241</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.3627619711232</v>
+        <v>126.345235925392</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.097795</v>
+        <v>124.3269298874546</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>155.4015879558113</v>
+        <v>146.0911614325691</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>135.1906025046558</v>
+        <v>133.3634784931973</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>155.0123597144631</v>
+        <v>158.01719328673</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>148.9909529896731</v>
+        <v>148.1806530635469</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>127.2178145663951</v>
+        <v>121.840135436138</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>106.4184079959915</v>
+        <v>107.6303944205393</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>100.7421894709699</v>
+        <v>99.27253297184363</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.5964111675803</v>
+        <v>100.5332207733247</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>75.53944</v>
+        <v>74.51851160646484</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>140.808801</v>
+        <v>138.8875486210964</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>109.423694</v>
+        <v>120.199469373531</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>132.6122301257224</v>
+        <v>136.8219612538095</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>132.9138196685148</v>
+        <v>133.4690450190542</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>151.0076164695083</v>
+        <v>150.9150932375568</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>99.99991900000001</v>
+        <v>100.2494678508256</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>130.9015499307573</v>
+        <v>130.2052716511795</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>138.366731</v>
+        <v>134.7342365836163</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>102.627694</v>
+        <v>106.8555682937037</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>122.0651462367667</v>
+        <v>126.8347879551594</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>116.784266</v>
+        <v>117.3457374485409</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>108.286879</v>
+        <v>107.6819117458684</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>138.733821</v>
+        <v>130.5535239853315</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>164.1119090924022</v>
+        <v>164.0711832865617</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>148.8488885820562</v>
+        <v>149.2800257397258</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>179.2540531755224</v>
+        <v>179.2408216688492</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>380.7289986256955</v>
+        <v>380.7735740382378</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>266.651592135556</v>
+        <v>249.5333100057006</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>156.0684712912425</v>
+        <v>154.1053458661954</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.4942491250741</v>
+        <v>138.5061778276322</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>256.9399875884483</v>
+        <v>258.0876815586926</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>137.4662810767135</v>
+        <v>141.0971629037215</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>115.6711086515836</v>
+        <v>116.5616190871042</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>118.2738568208291</v>
+        <v>121.7140772686459</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>151.4411192148595</v>
+        <v>147.2693461471443</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>118.9570460018282</v>
+        <v>118.986891872511</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.1858344887417</v>
+        <v>138.1643130170138</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.1457560426645</v>
+        <v>97.32512652928372</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>135.8791926078336</v>
+        <v>127.7383926620027</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>112.1762166769505</v>
+        <v>110.6601360085626</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>117.6865562264057</v>
+        <v>119.9655200862338</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>123.3777428878007</v>
+        <v>122.7067425757581</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>128.1907695344055</v>
+        <v>122.7719622048944</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>140.0849711797443</v>
+        <v>142.7937850887101</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>121.6511734178279</v>
+        <v>123.0366439721165</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>96.55919390001979</v>
+        <v>95.15056016264752</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.8798254700874</v>
+        <v>91.822110464868</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>61.40003859075949</v>
+        <v>60.57020661475516</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>110.370079</v>
+        <v>108.8641448869858</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>110.0626155939043</v>
+        <v>120.9013103894136</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>130.1555888845191</v>
+        <v>130.9175144863273</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>127.6451092192329</v>
+        <v>129.6856499954232</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>115.8348476385119</v>
+        <v>116.199393615302</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.5864324413264</v>
+        <v>208.4586303388767</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>125.990257</v>
+        <v>126.3046644931657</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>139.6883567852538</v>
+        <v>139.2565273026177</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>125.1823289783585</v>
+        <v>121.904938348962</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>123.8066354549285</v>
+        <v>128.9070023347479</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>112.7242289202733</v>
+        <v>117.1288784169356</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>138.7172827167724</v>
+        <v>139.3842029820814</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>113.4534798442948</v>
+        <v>112.8196482960323</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>122.270417</v>
+        <v>115.0608676633074</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>168.9809378830707</v>
+        <v>168.9586656242562</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>168.8249576994628</v>
+        <v>169.2394985174501</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>288.8274413045961</v>
+        <v>288.7995914711202</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>740.4480974856348</v>
+        <v>740.9042572955364</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>419.6091739797465</v>
+        <v>392.6714453619129</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>185.3521130742186</v>
+        <v>183.0206399537882</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>166.4664142645484</v>
+        <v>166.4684719597635</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>679.6520782756638</v>
+        <v>682.687933455008</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>122.2205943484663</v>
+        <v>123.6263465972712</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>115.3432865899997</v>
+        <v>117.2245713990279</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>101.0163</v>
+        <v>98.23358760375613</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>126.6393856574942</v>
+        <v>126.6840459173439</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.4604335975975</v>
+        <v>131.4175650321493</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.397024</v>
+        <v>110.6008617045262</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>152.700587</v>
+        <v>143.5519829604858</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>117.4771291094327</v>
+        <v>115.889405706945</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>121.474907</v>
+        <v>123.3111782153398</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>152.7663471745365</v>
+        <v>151.9355144471381</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>130.6660960483642</v>
+        <v>125.1426531237514</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>136.2163007113357</v>
+        <v>138.8503063929394</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>117.5092574433724</v>
+        <v>118.847556215756</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>89.77235557532909</v>
+        <v>88.46273021870354</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>104.0073971665609</v>
+        <v>103.9420641357284</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>94.67484243385681</v>
+        <v>93.39529581828498</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>130.4857064519637</v>
+        <v>128.705306561095</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>99.08047211046826</v>
+        <v>99.66048522390581</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>111.2374262758303</v>
+        <v>111.7955749560738</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.4407453314673</v>
+        <v>126.6812888267155</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.999152</v>
+        <v>88.94462170956494</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>110.8567007299666</v>
+        <v>111.1333425767813</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>139.1150116838103</v>
+        <v>138.8311493923321</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>123.6524274562762</v>
+        <v>119.0280392083323</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>109.239935</v>
+        <v>113.740208708112</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>114.6476507084504</v>
+        <v>119.1274570626252</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>124.618676</v>
+        <v>125.2178134602549</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>106.3988343285818</v>
+        <v>105.8044150301314</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>138.652461</v>
+        <v>130.4769612940217</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>172.1362289380102</v>
+        <v>172.0456996829197</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>166.7360129192438</v>
+        <v>167.7079352085194</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>214.2966011093012</v>
+        <v>214.2832203932163</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>868.8795211551736</v>
+        <v>869.1348302221572</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>672.7662544708387</v>
+        <v>629.5765534109505</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>172.240736</v>
+        <v>170.0741858616352</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.9115903857529</v>
+        <v>137.9532121168991</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6699.387612212923</v>
+        <v>6729.312291664462</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1041.089401659771</v>
+        <v>1048.651029188289</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>117.6549083122283</v>
+        <v>118.2673310237616</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>104.59358</v>
+        <v>105.3494146460844</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>141.792937</v>
+        <v>137.8869439722438</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.2071671109124</v>
+        <v>133.1817388663929</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>124.743262</v>
+        <v>117.2696384006659</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>127.215154</v>
+        <v>125.4958195330441</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>139.1083287783276</v>
+        <v>141.5795196053184</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>118.721841</v>
+        <v>118.0761622050028</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>120.9406367963273</v>
+        <v>115.8283029560051</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>121.624734</v>
+        <v>123.9765835121846</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>131.2179536935586</v>
+        <v>132.7123791555475</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>99.87780979830228</v>
+        <v>98.42076312243198</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.9416141697001</v>
+        <v>96.88071956373895</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>89.76871987376097</v>
+        <v>88.55548033994359</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>116.089789</v>
+        <v>114.5058128443997</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>96.08776400000001</v>
+        <v>105.5502498945893</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>116.1430014949914</v>
+        <v>116.8228979717258</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>111.7324989940479</v>
+        <v>112.4471989254152</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.5778890952799</v>
+        <v>120.9546871714717</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.98786200000001</v>
+        <v>81.93762756712576</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>100.2496039204084</v>
+        <v>100.4997758575882</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>144.2678264568513</v>
+        <v>143.7507049734736</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>108.349868613219</v>
+        <v>105.6399180519093</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>110.724548</v>
+        <v>115.2859821697199</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>104.840125</v>
+        <v>108.9367066154561</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>142.016640112362</v>
+        <v>142.6994229166894</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>111.782113</v>
+        <v>111.1576188915066</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>111.813850587697</v>
+        <v>105.220861930943</v>
       </c>
     </row>
     <row r="2510" spans="1:4">

--- a/IPC2024_base2010/indprod_1_2024.xlsx
+++ b/IPC2024_base2010/indprod_1_2024.xlsx
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1156.636762777282</v>
+        <v>1186.66367769881</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>142.5992080744049</v>
+        <v>142.6852614622854</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2588,7 +2588,7 @@
         <v>106</v>
       </c>
       <c r="D96">
-        <v>135.0704277086682</v>
+        <v>138.896635859255</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>148.8147239537289</v>
+        <v>157.5302712939136</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>128.4654694121766</v>
+        <v>131.971716697558</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>158</v>
       </c>
       <c r="D148">
-        <v>128.2596088288712</v>
+        <v>125.8265098523413</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>87.50242660301303</v>
+        <v>94.93565576210666</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>92.09720447039862</v>
+        <v>103.8121088747725</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>124.4508713669622</v>
+        <v>132.3058633667388</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.8240967188308</v>
+        <v>113.9605538093506</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>417.9095079164761</v>
+        <v>428.7586644044428</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>174.7989628745554</v>
+        <v>175.0778200413791</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6494,7 +6494,7 @@
         <v>106</v>
       </c>
       <c r="D375">
-        <v>133.5605114616976</v>
+        <v>137.343947452983</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>182.5044394803053</v>
+        <v>193.1930732379371</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>154.8505066723003</v>
+        <v>159.0768888366596</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7222,7 +7222,7 @@
         <v>158</v>
       </c>
       <c r="D427">
-        <v>134.9637409702232</v>
+        <v>132.403463864892</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>114.377105</v>
+        <v>124.0933067674769</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>83.12145853717468</v>
+        <v>93.69463441493011</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>123.6301037980877</v>
+        <v>132.5288037007092</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.1005</v>
+        <v>116.2157620554495</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1026.432177273483</v>
+        <v>1053.078910847561</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>117.9986597484812</v>
+        <v>118.0079604500593</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10400,7 +10400,7 @@
         <v>106</v>
       </c>
       <c r="D654">
-        <v>171.1231968683115</v>
+        <v>175.97069</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>132.4807364138192</v>
+        <v>140.2396603912356</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>125.1735765204553</v>
+        <v>128.5899771679177</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11128,7 +11128,7 @@
         <v>158</v>
       </c>
       <c r="D706">
-        <v>122.3856166955694</v>
+        <v>120.063948</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>66.091302</v>
+        <v>71.70568107793916</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>94.49647057566253</v>
+        <v>106.5165652757185</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>125.246863012776</v>
+        <v>129.4990243828662</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.456775</v>
+        <v>102.6021499896183</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>546.9424625503324</v>
+        <v>561.1413842157096</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>138.8557781075468</v>
+        <v>138.898417788414</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14306,7 +14306,7 @@
         <v>106</v>
       </c>
       <c r="D933">
-        <v>133.9319306305329</v>
+        <v>137.725888</v>
       </c>
     </row>
     <row r="934" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>142.8976915592648</v>
+        <v>151.2666994268944</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>139.4564486084763</v>
+        <v>143.2626760453103</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>68.463735</v>
+        <v>74.2796494963065</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>100.080777575252</v>
+        <v>112.8112046142869</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>98.03472022246181</v>
+        <v>98.0347202224618</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>114.9491435260857</v>
+        <v>120.8612234131959</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.3973549957902</v>
+        <v>106.5408060219988</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6642.729406377621</v>
+        <v>6815.178248703104</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>133.5925711752921</v>
+        <v>133.6347457220836</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -18212,7 +18212,7 @@
         <v>106</v>
       </c>
       <c r="D1212">
-        <v>128.384491730999</v>
+        <v>132.021304</v>
       </c>
     </row>
     <row r="1213" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>146.1461450559831</v>
+        <v>154.705403252887</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>129.9317508411497</v>
+        <v>133.4780177933214</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>83.28362199999999</v>
+        <v>90.35846862492794</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>126.0279513465248</v>
+        <v>132.3613471536318</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.804858</v>
+        <v>128.973125381922</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>895.2112942785864</v>
+        <v>918.4514628735652</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>139.4947871778369</v>
+        <v>139.5354183230091</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -22118,7 +22118,7 @@
         <v>106</v>
       </c>
       <c r="D1491">
-        <v>127.6274138578674</v>
+        <v>131.24278</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>146.0911614325691</v>
+        <v>154.6471994348573</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>121.840135436138</v>
+        <v>125.1655554581736</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>100.644007</v>
+        <v>109.1935980977932</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>99.27253297184363</v>
+        <v>111.900150068723</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>136.8219612538095</v>
+        <v>149.2856518469453</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.138971</v>
+        <v>113.2862626710348</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>377.1609211412235</v>
+        <v>386.9522223131141</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>135.0472015106852</v>
+        <v>135.087246578522</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -26024,7 +26024,7 @@
         <v>106</v>
       </c>
       <c r="D1770">
-        <v>147.2693461471443</v>
+        <v>151.4411192148595</v>
       </c>
     </row>
     <row r="1771" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>127.7383926620027</v>
+        <v>135.2195744888154</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>122.7719622048944</v>
+        <v>126.1228148594758</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26752,7 +26752,7 @@
         <v>158</v>
       </c>
       <c r="D1822">
-        <v>142.7937850887101</v>
+        <v>140.0849711797443</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>53.008748</v>
+        <v>57.51177936287055</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>95.15056016264752</v>
+        <v>107.2538560524409</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.822110464868</v>
+        <v>91.82211046486799</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>129.6856499954232</v>
+        <v>135.7270498148624</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.076457865799</v>
+        <v>115.2365127743607</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>192.1312103446807</v>
+        <v>197.1190403120919</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>186.2207853079836</v>
+        <v>186.390215403497</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29930,7 +29930,7 @@
         <v>106</v>
       </c>
       <c r="D2049">
-        <v>98.23358760375613</v>
+        <v>101.0163</v>
       </c>
     </row>
     <row r="2050" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>143.5519829604858</v>
+        <v>151.9593103406618</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>125.1426531237514</v>
+        <v>128.5582097695046</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30658,7 +30658,7 @@
         <v>158</v>
       </c>
       <c r="D2101">
-        <v>138.8503063929394</v>
+        <v>136.2163007113357</v>
       </c>
     </row>
     <row r="2102" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>53.882335</v>
+        <v>58.45957656038731</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>88.46273021870354</v>
+        <v>99.71532397354568</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>111.7955749560738</v>
+        <v>113.4480777511115</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.5886521851069</v>
+        <v>100.7218984110108</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1425.06757883357</v>
+        <v>1462.063102686986</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>127.9309845062132</v>
+        <v>128.0473616706196</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33836,7 +33836,7 @@
         <v>106</v>
       </c>
       <c r="D2328">
-        <v>137.8869439722438</v>
+        <v>141.792937</v>
       </c>
     </row>
     <row r="2329" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>117.2696384006659</v>
+        <v>124.1377026478915</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>115.8283029560051</v>
+        <v>118.9896401983639</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34564,7 +34564,7 @@
         <v>158</v>
       </c>
       <c r="D2380">
-        <v>123.9765835121846</v>
+        <v>121.624734</v>
       </c>
     </row>
     <row r="2381" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>60.546817</v>
+        <v>65.69019853908075</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>98.42076312243198</v>
+        <v>110.9400337997021</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.88071956373895</v>
+        <v>96.88071956373894</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>112.4471989254152</v>
+        <v>114.5632007650729</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.460662</v>
+        <v>112.6166572580548</v>
       </c>
     </row>
     <row r="2476" spans="1:4">

--- a/IPC2024_base2010/indprod_1_2024.xlsx
+++ b/IPC2024_base2010/indprod_1_2024.xlsx
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>190.2642716986821</v>
+        <v>190.3359896361605</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>155.2015555260295</v>
+        <v>154.7281020174519</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>354.8448413284016</v>
+        <v>354.8667078045926</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>484.7021161279222</v>
+        <v>484.5570001177906</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>54</v>
       </c>
       <c r="D44">
-        <v>515.2367903915175</v>
+        <v>550.5826475895069</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <v>1186.66367769881</v>
+        <v>1156.636762777282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
       <c r="D56">
-        <v>180.0115519228879</v>
+        <v>182.3046927117145</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>154.9895768590238</v>
+        <v>154.9606163379036</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>70</v>
       </c>
       <c r="D60">
-        <v>673.748286473992</v>
+        <v>670.75218514448</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>383.7019728894239</v>
+        <v>364.3172239615706</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>142.6852614622854</v>
+        <v>142.5992080744049</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>121.5035853349406</v>
+        <v>120.1722647990754</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2322,7 +2322,7 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>118.6892482425591</v>
+        <v>117.8377062929355</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2336,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>140.4930806638162</v>
+        <v>136.5220759967912</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>119.9891600173872</v>
+        <v>119.9435719213676</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.3326155440244</v>
+        <v>134.3567052144826</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="D126">
-        <v>129.9890421811608</v>
+        <v>129.749472004551</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3022,7 +3022,7 @@
         <v>137</v>
       </c>
       <c r="D127">
-        <v>157.5302712939136</v>
+        <v>158.2987238025991</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3190,7 +3190,7 @@
         <v>149</v>
       </c>
       <c r="D139">
-        <v>127.2130971641771</v>
+        <v>128.9559589058384</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3218,7 +3218,7 @@
         <v>151</v>
       </c>
       <c r="D141">
-        <v>137.8632933113001</v>
+        <v>135.5996517657354</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3274,7 +3274,7 @@
         <v>155</v>
       </c>
       <c r="D145">
-        <v>137.7822030444196</v>
+        <v>138.5356408694001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3302,7 +3302,7 @@
         <v>157</v>
       </c>
       <c r="D147">
-        <v>131.971716697558</v>
+        <v>134.1355720539999</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3442,7 +3442,7 @@
         <v>167</v>
       </c>
       <c r="D157">
-        <v>133.8458597992697</v>
+        <v>132.3386706271776</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>87.50242660301303</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>103.8121088747725</v>
+        <v>93.46063553284237</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4184,7 +4184,7 @@
         <v>220</v>
       </c>
       <c r="D210">
-        <v>95.05266221060999</v>
+        <v>95.11240778678798</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4240,7 +4240,7 @@
         <v>224</v>
       </c>
       <c r="D214">
-        <v>82.11621335089112</v>
+        <v>83.24123278528683</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>118.8585584362236</v>
+        <v>120.5027467771931</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4324,7 +4324,7 @@
         <v>230</v>
       </c>
       <c r="D220">
-        <v>126.0309170113129</v>
+        <v>114.7323575508408</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>110.2340361548296</v>
+        <v>109.5924861325384</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>132.3058633667388</v>
+        <v>121.7977724244591</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>127.3298126448159</v>
+        <v>126.8136127510276</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>228.8002678138808</v>
+        <v>228.9405409952795</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9605538093506</v>
+        <v>113.8240967188308</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>112.6167904130134</v>
+        <v>112.3364558513073</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4828,7 +4828,7 @@
         <v>266</v>
       </c>
       <c r="D256">
-        <v>150.2693051643177</v>
+        <v>151.0765352730708</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>128.6187873701232</v>
+        <v>131.8886528946519</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4954,7 +4954,7 @@
         <v>275</v>
       </c>
       <c r="D265">
-        <v>132.7284020107692</v>
+        <v>127.4768366701283</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5038,7 +5038,7 @@
         <v>281</v>
       </c>
       <c r="D271">
-        <v>111.0506009750682</v>
+        <v>106.8745260369328</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5052,7 +5052,7 @@
         <v>282</v>
       </c>
       <c r="D272">
-        <v>120.2981778067624</v>
+        <v>119.7225796332061</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5066,7 +5066,7 @@
         <v>283</v>
       </c>
       <c r="D273">
-        <v>109.7280441243184</v>
+        <v>110.3445067453738</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>132.7985251888791</v>
+        <v>141.1194907667752</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>173.478221173582</v>
+        <v>173.5652744791596</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>145.9685479622371</v>
+        <v>145.7307621900677</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5416,7 +5416,7 @@
         <v>29</v>
       </c>
       <c r="D298">
-        <v>152.3079629040224</v>
+        <v>152.3542983243794</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>319.9102589065799</v>
+        <v>319.8686390118012</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5766,7 +5766,7 @@
         <v>54</v>
       </c>
       <c r="D323">
-        <v>353.6597338316624</v>
+        <v>377.9212125960071</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5780,7 +5780,7 @@
         <v>55</v>
       </c>
       <c r="D324">
-        <v>428.7586644044428</v>
+        <v>417.9095079164761</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5934,7 +5934,7 @@
         <v>66</v>
       </c>
       <c r="D335">
-        <v>187.7596742736126</v>
+        <v>190.1515172579898</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5948,7 +5948,7 @@
         <v>67</v>
       </c>
       <c r="D336">
-        <v>167.3901431687352</v>
+        <v>167.3355980689045</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5990,7 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D339">
-        <v>217.0635369212065</v>
+        <v>216.0982738331745</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6018,7 +6018,7 @@
         <v>72</v>
       </c>
       <c r="D341">
-        <v>1143.498512615324</v>
+        <v>1039.13303404257</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6116,7 +6116,7 @@
         <v>79</v>
       </c>
       <c r="D348">
-        <v>175.0778200413791</v>
+        <v>174.7989628745554</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6214,7 +6214,7 @@
         <v>86</v>
       </c>
       <c r="D355">
-        <v>123.8912550781115</v>
+        <v>122.184196579718</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6228,7 +6228,7 @@
         <v>87</v>
       </c>
       <c r="D356">
-        <v>117.0279466119781</v>
+        <v>116.1883237540192</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6242,7 +6242,7 @@
         <v>88</v>
       </c>
       <c r="D357">
-        <v>146.6013458107051</v>
+        <v>142.4576924317925</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6536,7 +6536,7 @@
         <v>109</v>
       </c>
       <c r="D378">
-        <v>121.2787222635385</v>
+        <v>121.1794311290324</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9256170355768</v>
+        <v>141.9533638547951</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6914,7 +6914,7 @@
         <v>136</v>
       </c>
       <c r="D405">
-        <v>134.4482515121638</v>
+        <v>134.200463</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6928,7 +6928,7 @@
         <v>137</v>
       </c>
       <c r="D406">
-        <v>193.1930732379371</v>
+        <v>194.1354933872261</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7096,7 +7096,7 @@
         <v>149</v>
       </c>
       <c r="D418">
-        <v>137.5079592240923</v>
+        <v>139.391864</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7124,7 +7124,7 @@
         <v>151</v>
       </c>
       <c r="D420">
-        <v>139.4623360260971</v>
+        <v>137.4022659730382</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7180,7 +7180,7 @@
         <v>155</v>
       </c>
       <c r="D424">
-        <v>142.467671512038</v>
+        <v>143.246731</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7208,7 +7208,7 @@
         <v>157</v>
       </c>
       <c r="D426">
-        <v>159.0768888366596</v>
+        <v>161.6851702670223</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7348,7 +7348,7 @@
         <v>167</v>
       </c>
       <c r="D436">
-        <v>144.0012997975766</v>
+        <v>142.3797539376779</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>114.377105</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>93.69463441493011</v>
+        <v>84.35201031316957</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8090,7 +8090,7 @@
         <v>220</v>
       </c>
       <c r="D489">
-        <v>91.1116861790163</v>
+        <v>91.1689546453666</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8146,7 +8146,7 @@
         <v>224</v>
       </c>
       <c r="D493">
-        <v>87.48218060571774</v>
+        <v>88.68071557620151</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>118.7924995482212</v>
+        <v>120.4357740866434</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8230,7 +8230,7 @@
         <v>230</v>
       </c>
       <c r="D499">
-        <v>124.8323127021583</v>
+        <v>113.6412070504635</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>107.759989574506</v>
+        <v>107.1328382324602</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>132.5288037007092</v>
+        <v>120.6244824935759</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>134.925574738191</v>
+        <v>134.2279023064861</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>294.5066889275465</v>
+        <v>294.6872454915479</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>112.3714963710263</v>
+        <v>112.0917724145195</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8734,7 +8734,7 @@
         <v>266</v>
       </c>
       <c r="D535">
-        <v>165.6530866771205</v>
+        <v>166.8586136891051</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>136.7719870053035</v>
+        <v>139.722785233294</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -8860,7 +8860,7 @@
         <v>275</v>
       </c>
       <c r="D544">
-        <v>145.04862723143</v>
+        <v>139.3095967606622</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -8944,7 +8944,7 @@
         <v>281</v>
       </c>
       <c r="D550">
-        <v>106.0046106972615</v>
+        <v>102.018291</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -8958,7 +8958,7 @@
         <v>282</v>
       </c>
       <c r="D551">
-        <v>122.6846870486296</v>
+        <v>122.0976699958697</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -8972,7 +8972,7 @@
         <v>283</v>
       </c>
       <c r="D552">
-        <v>111.1280623015829</v>
+        <v>111.7523903583341</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>135.073625096394</v>
+        <v>143.5371451792424</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -9140,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="D564">
-        <v>240.7533360859749</v>
+        <v>240.8284380271677</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -9238,7 +9238,7 @@
         <v>23</v>
       </c>
       <c r="D571">
-        <v>161.5107994284675</v>
+        <v>161.3857460658616</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -9322,7 +9322,7 @@
         <v>29</v>
       </c>
       <c r="D577">
-        <v>231.115406946693</v>
+        <v>231.129051233453</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -9448,7 +9448,7 @@
         <v>38</v>
       </c>
       <c r="D586">
-        <v>641.8152907827698</v>
+        <v>641.6948346967115</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -9672,7 +9672,7 @@
         <v>54</v>
       </c>
       <c r="D602">
-        <v>1333.307800452973</v>
+        <v>1424.774302835238</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -9686,7 +9686,7 @@
         <v>55</v>
       </c>
       <c r="D603">
-        <v>1053.078910847561</v>
+        <v>1026.432177273483</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -9840,7 +9840,7 @@
         <v>66</v>
       </c>
       <c r="D614">
-        <v>151.3505242819178</v>
+        <v>153.2785564383754</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -9854,7 +9854,7 @@
         <v>67</v>
       </c>
       <c r="D615">
-        <v>134.7428797111656</v>
+        <v>134.7261301641119</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9896,7 +9896,7 @@
         <v>70</v>
       </c>
       <c r="D618">
-        <v>460.6444643055565</v>
+        <v>458.5960175493339</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -9924,7 +9924,7 @@
         <v>72</v>
       </c>
       <c r="D620">
-        <v>235.1538455780046</v>
+        <v>229.8604833249634</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -10022,7 +10022,7 @@
         <v>79</v>
       </c>
       <c r="D627">
-        <v>118.0079604500593</v>
+        <v>117.9986597484812</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -10120,7 +10120,7 @@
         <v>86</v>
       </c>
       <c r="D634">
-        <v>114.2218017836472</v>
+        <v>113.4830921012877</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -10134,7 +10134,7 @@
         <v>87</v>
       </c>
       <c r="D635">
-        <v>154.8040346291046</v>
+        <v>153.6933853377023</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -10148,7 +10148,7 @@
         <v>88</v>
       </c>
       <c r="D636">
-        <v>129.2030032203455</v>
+        <v>125.55111</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -10442,7 +10442,7 @@
         <v>109</v>
       </c>
       <c r="D657">
-        <v>120.3369202155674</v>
+        <v>120.3143563575878</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -10596,7 +10596,7 @@
         <v>120</v>
       </c>
       <c r="D668">
-        <v>123.171601307643</v>
+        <v>123.1913955160916</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -10820,7 +10820,7 @@
         <v>136</v>
       </c>
       <c r="D684">
-        <v>102.4926111756054</v>
+        <v>102.303717</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10834,7 +10834,7 @@
         <v>137</v>
       </c>
       <c r="D685">
-        <v>140.2396603912356</v>
+        <v>140.923767121705</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -11002,7 +11002,7 @@
         <v>149</v>
       </c>
       <c r="D697">
-        <v>131.9699086697786</v>
+        <v>133.7779403111611</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -11030,7 +11030,7 @@
         <v>151</v>
       </c>
       <c r="D699">
-        <v>140.6786898859526</v>
+        <v>139.19785</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -11086,7 +11086,7 @@
         <v>155</v>
       </c>
       <c r="D703">
-        <v>142.530848457681</v>
+        <v>143.3102534176958</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -11114,7 +11114,7 @@
         <v>157</v>
       </c>
       <c r="D705">
-        <v>128.5899771679177</v>
+        <v>130.6983843163767</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -11254,7 +11254,7 @@
         <v>167</v>
       </c>
       <c r="D715">
-        <v>118.6815838180426</v>
+        <v>117.345154</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>66.091302</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>106.5165652757185</v>
+        <v>95.895421</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -11996,7 +11996,7 @@
         <v>220</v>
       </c>
       <c r="D768">
-        <v>92.35005931741155</v>
+        <v>92.40810616613385</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -12052,7 +12052,7 @@
         <v>224</v>
       </c>
       <c r="D772">
-        <v>64.42120111847106</v>
+        <v>65.303793</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>94.23654847131314</v>
+        <v>95.54013683994442</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12136,7 +12136,7 @@
         <v>230</v>
       </c>
       <c r="D778">
-        <v>145.5175310535848</v>
+        <v>132.472014</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>107.6305590706832</v>
+        <v>107.004161</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>129.4990243828662</v>
+        <v>123.8106546965028</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>117.6149915592995</v>
+        <v>117.2621801333104</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>150.7537736700697</v>
+        <v>150.846198</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6021499896183</v>
+        <v>102.456775</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>118.233297289884</v>
+        <v>117.9389816780355</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12640,7 +12640,7 @@
         <v>266</v>
       </c>
       <c r="D814">
-        <v>138.7319525238103</v>
+        <v>139.2556524122291</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>102.2675366544456</v>
+        <v>106.3050482272678</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12766,7 +12766,7 @@
         <v>275</v>
       </c>
       <c r="D823">
-        <v>126.1211647283305</v>
+        <v>121.131023</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -12850,7 +12850,7 @@
         <v>281</v>
       </c>
       <c r="D829">
-        <v>115.0278302573103</v>
+        <v>110.702191</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -12864,7 +12864,7 @@
         <v>282</v>
       </c>
       <c r="D830">
-        <v>119.0321737216017</v>
+        <v>118.4626330765335</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -12878,7 +12878,7 @@
         <v>283</v>
       </c>
       <c r="D831">
-        <v>100.8281468509664</v>
+        <v>101.394609</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>113.0354475872659</v>
+        <v>120.118087</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -13046,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="D843">
-        <v>200.9165491891713</v>
+        <v>200.9999167787311</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -13144,7 +13144,7 @@
         <v>23</v>
       </c>
       <c r="D850">
-        <v>158.6984201846011</v>
+        <v>158.2636493337083</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>167.829475171516</v>
+        <v>167.8391888547045</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>468.4928774539881</v>
+        <v>468.3026803939655</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13578,7 +13578,7 @@
         <v>54</v>
       </c>
       <c r="D881">
-        <v>332.0886310847291</v>
+        <v>354.87030652075</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -13592,7 +13592,7 @@
         <v>55</v>
       </c>
       <c r="D882">
-        <v>561.1413842157096</v>
+        <v>546.9424625503324</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
       <c r="D893">
-        <v>180.437161139086</v>
+        <v>182.7357237013673</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -13760,7 +13760,7 @@
         <v>67</v>
       </c>
       <c r="D894">
-        <v>152.1093630378763</v>
+        <v>152.0921308359171</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13802,7 +13802,7 @@
         <v>70</v>
       </c>
       <c r="D897">
-        <v>381.4692034250192</v>
+        <v>379.7728423202942</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13830,7 +13830,7 @@
         <v>72</v>
       </c>
       <c r="D899">
-        <v>344.3646753607727</v>
+        <v>332.9510430240341</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -13928,7 +13928,7 @@
         <v>79</v>
       </c>
       <c r="D906">
-        <v>138.898417788414</v>
+        <v>138.8557781075468</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D913">
-        <v>128.9113162036782</v>
+        <v>126.8292482616633</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -14040,7 +14040,7 @@
         <v>87</v>
       </c>
       <c r="D914">
-        <v>133.683601867534</v>
+        <v>132.7244821776499</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -14054,7 +14054,7 @@
         <v>88</v>
       </c>
       <c r="D915">
-        <v>160.6400891730278</v>
+        <v>156.0996339363473</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -14502,7 +14502,7 @@
         <v>120</v>
       </c>
       <c r="D947">
-        <v>133.0239396250329</v>
+        <v>133.0389442017049</v>
       </c>
     </row>
     <row r="948" spans="1:4">
@@ -14740,7 +14740,7 @@
         <v>137</v>
       </c>
       <c r="D964">
-        <v>151.2666994268944</v>
+        <v>152.0045974429417</v>
       </c>
     </row>
     <row r="965" spans="1:4">
@@ -14908,7 +14908,7 @@
         <v>149</v>
       </c>
       <c r="D976">
-        <v>119.5666863969328</v>
+        <v>121.2047897679206</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14936,7 +14936,7 @@
         <v>151</v>
       </c>
       <c r="D978">
-        <v>141.5422219768953</v>
+        <v>139.2660654151207</v>
       </c>
     </row>
     <row r="979" spans="1:4">
@@ -14992,7 +14992,7 @@
         <v>155</v>
       </c>
       <c r="D982">
-        <v>148.615702961188</v>
+        <v>149.4283818814179</v>
       </c>
     </row>
     <row r="983" spans="1:4">
@@ -15020,7 +15020,7 @@
         <v>157</v>
       </c>
       <c r="D984">
-        <v>143.2626760453103</v>
+        <v>145.611662</v>
       </c>
     </row>
     <row r="985" spans="1:4">
@@ -15160,7 +15160,7 @@
         <v>167</v>
       </c>
       <c r="D994">
-        <v>120.103708846776</v>
+        <v>118.751265</v>
       </c>
     </row>
     <row r="995" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>68.463735</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>112.8112046142869</v>
+        <v>101.5623995385276</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -15902,7 +15902,7 @@
         <v>220</v>
       </c>
       <c r="D1047">
-        <v>98.0347202224618</v>
+        <v>98.09634017827285</v>
       </c>
     </row>
     <row r="1048" spans="1:4">
@@ -15958,7 +15958,7 @@
         <v>224</v>
       </c>
       <c r="D1051">
-        <v>55.78254794818553</v>
+        <v>56.54678740810382</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -16042,7 +16042,7 @@
         <v>230</v>
       </c>
       <c r="D1057">
-        <v>156.3724931855247</v>
+        <v>142.3538384447969</v>
       </c>
     </row>
     <row r="1058" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>130.7858484957602</v>
+        <v>130.0246891756027</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>120.8612234131959</v>
+        <v>112.9522817982912</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>121.8136319055324</v>
+        <v>121.3881525657851</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>194.055385521566</v>
+        <v>194.1743572629663</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>115.7344453974365</v>
+        <v>115.4463501240248</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16546,7 +16546,7 @@
         <v>266</v>
       </c>
       <c r="D1093">
-        <v>135.2081098540154</v>
+        <v>135.7933024916636</v>
       </c>
     </row>
     <row r="1094" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>125.330180881485</v>
+        <v>128.3711629209133</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16672,7 +16672,7 @@
         <v>275</v>
       </c>
       <c r="D1102">
-        <v>131.6092850785985</v>
+        <v>126.401999</v>
       </c>
     </row>
     <row r="1103" spans="1:4">
@@ -16756,7 +16756,7 @@
         <v>281</v>
       </c>
       <c r="D1108">
-        <v>115.3553745126349</v>
+        <v>111.0174179032006</v>
       </c>
     </row>
     <row r="1109" spans="1:4">
@@ -16770,7 +16770,7 @@
         <v>282</v>
       </c>
       <c r="D1109">
-        <v>149.8352271289932</v>
+        <v>149.1183011984245</v>
       </c>
     </row>
     <row r="1110" spans="1:4">
@@ -16784,7 +16784,7 @@
         <v>283</v>
       </c>
       <c r="D1110">
-        <v>109.3803338484494</v>
+        <v>109.994843</v>
       </c>
     </row>
     <row r="1111" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>135.8941470760828</v>
+        <v>144.4090798921614</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -16952,7 +16952,7 @@
         <v>16</v>
       </c>
       <c r="D1122">
-        <v>266.4698473916434</v>
+        <v>266.5457057713616</v>
       </c>
     </row>
     <row r="1123" spans="1:4">
@@ -17050,7 +17050,7 @@
         <v>23</v>
       </c>
       <c r="D1129">
-        <v>188.2923888928549</v>
+        <v>187.4101716549381</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -17134,7 +17134,7 @@
         <v>29</v>
       </c>
       <c r="D1135">
-        <v>1167.363877812809</v>
+        <v>1167.375097709941</v>
       </c>
     </row>
     <row r="1136" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1243.907371331399</v>
+        <v>1243.392794598368</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17484,7 +17484,7 @@
         <v>54</v>
       </c>
       <c r="D1160">
-        <v>2123.264539150108</v>
+        <v>2268.923014231685</v>
       </c>
     </row>
     <row r="1161" spans="1:4">
@@ -17498,7 +17498,7 @@
         <v>55</v>
       </c>
       <c r="D1161">
-        <v>6815.178248703104</v>
+        <v>6642.729406377621</v>
       </c>
     </row>
     <row r="1162" spans="1:4">
@@ -17652,7 +17652,7 @@
         <v>66</v>
       </c>
       <c r="D1172">
-        <v>193.5744486486859</v>
+        <v>196.0403651919813</v>
       </c>
     </row>
     <row r="1173" spans="1:4">
@@ -17666,7 +17666,7 @@
         <v>67</v>
       </c>
       <c r="D1173">
-        <v>174.2707285646809</v>
+        <v>174.2597925601996</v>
       </c>
     </row>
     <row r="1174" spans="1:4">
@@ -17708,7 +17708,7 @@
         <v>70</v>
       </c>
       <c r="D1176">
-        <v>365.6144703432118</v>
+        <v>363.9886138881002</v>
       </c>
     </row>
     <row r="1177" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>76448.77753270532</v>
+        <v>68838.95727763517</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -17834,7 +17834,7 @@
         <v>79</v>
       </c>
       <c r="D1185">
-        <v>133.6347457220836</v>
+        <v>133.5925711752921</v>
       </c>
     </row>
     <row r="1186" spans="1:4">
@@ -17932,7 +17932,7 @@
         <v>86</v>
       </c>
       <c r="D1192">
-        <v>124.0479938382225</v>
+        <v>123.155129144224</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17946,7 +17946,7 @@
         <v>87</v>
       </c>
       <c r="D1193">
-        <v>110.1413979701895</v>
+        <v>109.351183</v>
       </c>
     </row>
     <row r="1194" spans="1:4">
@@ -17960,7 +17960,7 @@
         <v>88</v>
       </c>
       <c r="D1194">
-        <v>133.1885098566104</v>
+        <v>129.4239672062838</v>
       </c>
     </row>
     <row r="1195" spans="1:4">
@@ -18408,7 +18408,7 @@
         <v>120</v>
       </c>
       <c r="D1226">
-        <v>134.3305043593909</v>
+        <v>134.3538661076704</v>
       </c>
     </row>
     <row r="1227" spans="1:4">
@@ -18646,7 +18646,7 @@
         <v>137</v>
       </c>
       <c r="D1243">
-        <v>154.705403252887</v>
+        <v>155.4600756993977</v>
       </c>
     </row>
     <row r="1244" spans="1:4">
@@ -18814,7 +18814,7 @@
         <v>149</v>
       </c>
       <c r="D1255">
-        <v>112.0173174938708</v>
+        <v>113.551992</v>
       </c>
     </row>
     <row r="1256" spans="1:4">
@@ -18842,7 +18842,7 @@
         <v>151</v>
       </c>
       <c r="D1257">
-        <v>125.5518301905272</v>
+        <v>123.404081088855</v>
       </c>
     </row>
     <row r="1258" spans="1:4">
@@ -18898,7 +18898,7 @@
         <v>155</v>
       </c>
       <c r="D1261">
-        <v>130.6302861787128</v>
+        <v>131.344615</v>
       </c>
     </row>
     <row r="1262" spans="1:4">
@@ -18926,7 +18926,7 @@
         <v>157</v>
       </c>
       <c r="D1263">
-        <v>133.4780177933214</v>
+        <v>135.666571</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>83.28362199999999</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19808,7 +19808,7 @@
         <v>220</v>
       </c>
       <c r="D1326">
-        <v>107.9156219895278</v>
+        <v>107.9834526095696</v>
       </c>
     </row>
     <row r="1327" spans="1:4">
@@ -19864,7 +19864,7 @@
         <v>224</v>
       </c>
       <c r="D1330">
-        <v>62.41110849223943</v>
+        <v>63.2661614362411</v>
       </c>
     </row>
     <row r="1331" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>102.3789420843002</v>
+        <v>103.795165410163</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>132.3613471536318</v>
+        <v>123.8887861228343</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>115.7951599733898</v>
+        <v>115.4504123551027</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>108.7021027823519</v>
+        <v>108.7687460163293</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>105.1732615448948</v>
+        <v>104.911456</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20452,7 +20452,7 @@
         <v>266</v>
       </c>
       <c r="D1372">
-        <v>155.3308325976591</v>
+        <v>156.01047706489</v>
       </c>
     </row>
     <row r="1373" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>113.2398082797408</v>
+        <v>117.0390406971025</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20578,7 +20578,7 @@
         <v>275</v>
       </c>
       <c r="D1381">
-        <v>153.4032339413829</v>
+        <v>147.333643</v>
       </c>
     </row>
     <row r="1382" spans="1:4">
@@ -20662,7 +20662,7 @@
         <v>281</v>
       </c>
       <c r="D1387">
-        <v>125.8554048666415</v>
+        <v>121.122593</v>
       </c>
     </row>
     <row r="1388" spans="1:4">
@@ -20676,7 +20676,7 @@
         <v>282</v>
       </c>
       <c r="D1388">
-        <v>119.6433870851315</v>
+        <v>119.0709219294671</v>
       </c>
     </row>
     <row r="1389" spans="1:4">
@@ -20690,7 +20690,7 @@
         <v>283</v>
       </c>
       <c r="D1389">
-        <v>115.3972562045775</v>
+        <v>116.045569</v>
       </c>
     </row>
     <row r="1390" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>134.9831546649398</v>
+        <v>143.441006</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -20858,7 +20858,7 @@
         <v>16</v>
       </c>
       <c r="D1401">
-        <v>219.0479349128693</v>
+        <v>219.1166896190872</v>
       </c>
     </row>
     <row r="1402" spans="1:4">
@@ -20956,7 +20956,7 @@
         <v>23</v>
       </c>
       <c r="D1408">
-        <v>150.8011553124973</v>
+        <v>149.9149588333875</v>
       </c>
     </row>
     <row r="1409" spans="1:4">
@@ -21040,7 +21040,7 @@
         <v>29</v>
       </c>
       <c r="D1414">
-        <v>180.4381555601956</v>
+        <v>180.4444276444423</v>
       </c>
     </row>
     <row r="1415" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>349.3419967983721</v>
+        <v>349.228377013742</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21390,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="D1439">
-        <v>603.8291054123869</v>
+        <v>645.2525008878497</v>
       </c>
     </row>
     <row r="1440" spans="1:4">
@@ -21404,7 +21404,7 @@
         <v>55</v>
       </c>
       <c r="D1440">
-        <v>918.4514628735652</v>
+        <v>895.2112942785864</v>
       </c>
     </row>
     <row r="1441" spans="1:4">
@@ -21558,7 +21558,7 @@
         <v>66</v>
       </c>
       <c r="D1451">
-        <v>186.926227922725</v>
+        <v>189.3074537561355</v>
       </c>
     </row>
     <row r="1452" spans="1:4">
@@ -21572,7 +21572,7 @@
         <v>67</v>
       </c>
       <c r="D1452">
-        <v>138.9871754326851</v>
+        <v>138.9774854397213</v>
       </c>
     </row>
     <row r="1453" spans="1:4">
@@ -21614,7 +21614,7 @@
         <v>70</v>
       </c>
       <c r="D1455">
-        <v>717.4841568146071</v>
+        <v>714.2935657893058</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21642,7 +21642,7 @@
         <v>72</v>
       </c>
       <c r="D1457">
-        <v>528.0668052205895</v>
+        <v>496.0726235748397</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21740,7 +21740,7 @@
         <v>79</v>
       </c>
       <c r="D1464">
-        <v>139.5354183230091</v>
+        <v>139.4947871778369</v>
       </c>
     </row>
     <row r="1465" spans="1:4">
@@ -21866,7 +21866,7 @@
         <v>88</v>
       </c>
       <c r="D1473">
-        <v>138.4093079851588</v>
+        <v>134.4972006744511</v>
       </c>
     </row>
     <row r="1474" spans="1:4">
@@ -22160,7 +22160,7 @@
         <v>109</v>
       </c>
       <c r="D1494">
-        <v>118.1401110939241</v>
+        <v>118.1045345454713</v>
       </c>
     </row>
     <row r="1495" spans="1:4">
@@ -22314,7 +22314,7 @@
         <v>120</v>
       </c>
       <c r="D1505">
-        <v>126.345235925392</v>
+        <v>126.3627619711232</v>
       </c>
     </row>
     <row r="1506" spans="1:4">
@@ -22538,7 +22538,7 @@
         <v>136</v>
       </c>
       <c r="D1521">
-        <v>124.3269298874546</v>
+        <v>124.097795</v>
       </c>
     </row>
     <row r="1522" spans="1:4">
@@ -22552,7 +22552,7 @@
         <v>137</v>
       </c>
       <c r="D1522">
-        <v>154.6471994348573</v>
+        <v>155.4015879558113</v>
       </c>
     </row>
     <row r="1523" spans="1:4">
@@ -22720,7 +22720,7 @@
         <v>149</v>
       </c>
       <c r="D1534">
-        <v>133.3634784931973</v>
+        <v>135.1906025046558</v>
       </c>
     </row>
     <row r="1535" spans="1:4">
@@ -22748,7 +22748,7 @@
         <v>151</v>
       </c>
       <c r="D1536">
-        <v>158.01719328673</v>
+        <v>155.0123597144631</v>
       </c>
     </row>
     <row r="1537" spans="1:4">
@@ -22804,7 +22804,7 @@
         <v>155</v>
       </c>
       <c r="D1540">
-        <v>148.1806530635469</v>
+        <v>148.9909529896731</v>
       </c>
     </row>
     <row r="1541" spans="1:4">
@@ -22832,7 +22832,7 @@
         <v>157</v>
       </c>
       <c r="D1542">
-        <v>125.1655554581736</v>
+        <v>127.2178145663951</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22972,7 +22972,7 @@
         <v>167</v>
       </c>
       <c r="D1552">
-        <v>107.6303944205393</v>
+        <v>106.4184079959915</v>
       </c>
     </row>
     <row r="1553" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>100.644007</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>111.900150068723</v>
+        <v>100.7421894709699</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23714,7 +23714,7 @@
         <v>220</v>
       </c>
       <c r="D1605">
-        <v>100.5332207733247</v>
+        <v>100.5964111675803</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -23770,7 +23770,7 @@
         <v>224</v>
       </c>
       <c r="D1609">
-        <v>74.51851160646484</v>
+        <v>75.53944</v>
       </c>
     </row>
     <row r="1610" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>138.8875486210964</v>
+        <v>140.808801</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23854,7 +23854,7 @@
         <v>230</v>
       </c>
       <c r="D1615">
-        <v>120.199469373531</v>
+        <v>109.423694</v>
       </c>
     </row>
     <row r="1616" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>149.2856518469453</v>
+        <v>132.6122301257224</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>133.4690450190542</v>
+        <v>132.9138196685148</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>150.9150932375568</v>
+        <v>151.0076164695083</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>100.2494678508256</v>
+        <v>99.99991900000001</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24358,7 +24358,7 @@
         <v>266</v>
       </c>
       <c r="D1651">
-        <v>130.2052716511795</v>
+        <v>130.9015499307573</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>134.7342365836163</v>
+        <v>138.366731</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24484,7 +24484,7 @@
         <v>275</v>
       </c>
       <c r="D1660">
-        <v>106.8555682937037</v>
+        <v>102.627694</v>
       </c>
     </row>
     <row r="1661" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>281</v>
       </c>
       <c r="D1666">
-        <v>126.8347879551594</v>
+        <v>122.0651462367667</v>
       </c>
     </row>
     <row r="1667" spans="1:4">
@@ -24582,7 +24582,7 @@
         <v>282</v>
       </c>
       <c r="D1667">
-        <v>117.3457374485409</v>
+        <v>116.784266</v>
       </c>
     </row>
     <row r="1668" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>283</v>
       </c>
       <c r="D1668">
-        <v>107.6819117458684</v>
+        <v>108.286879</v>
       </c>
     </row>
     <row r="1669" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>130.5535239853315</v>
+        <v>138.733821</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>164.0711832865617</v>
+        <v>164.1119090924022</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24862,7 +24862,7 @@
         <v>23</v>
       </c>
       <c r="D1687">
-        <v>149.2800257397258</v>
+        <v>148.8488885820562</v>
       </c>
     </row>
     <row r="1688" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>179.2408216688492</v>
+        <v>179.2540531755224</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>380.7735740382378</v>
+        <v>380.7289986256955</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25296,7 +25296,7 @@
         <v>54</v>
       </c>
       <c r="D1718">
-        <v>249.5333100057006</v>
+        <v>266.651592135556</v>
       </c>
     </row>
     <row r="1719" spans="1:4">
@@ -25310,7 +25310,7 @@
         <v>55</v>
       </c>
       <c r="D1719">
-        <v>386.9522223131141</v>
+        <v>377.1609211412235</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25464,7 +25464,7 @@
         <v>66</v>
       </c>
       <c r="D1730">
-        <v>154.1053458661954</v>
+        <v>156.0684712912425</v>
       </c>
     </row>
     <row r="1731" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.5061778276322</v>
+        <v>138.4942491250741</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -25520,7 +25520,7 @@
         <v>70</v>
       </c>
       <c r="D1734">
-        <v>258.0876815586926</v>
+        <v>256.9399875884483</v>
       </c>
     </row>
     <row r="1735" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>141.0971629037215</v>
+        <v>137.4662810767135</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>135.087246578522</v>
+        <v>135.0472015106852</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25744,7 +25744,7 @@
         <v>86</v>
       </c>
       <c r="D1750">
-        <v>116.5616190871042</v>
+        <v>115.6711086515836</v>
       </c>
     </row>
     <row r="1751" spans="1:4">
@@ -25772,7 +25772,7 @@
         <v>88</v>
       </c>
       <c r="D1752">
-        <v>121.7140772686459</v>
+        <v>118.2738568208291</v>
       </c>
     </row>
     <row r="1753" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>118.986891872511</v>
+        <v>118.9570460018282</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>138.1643130170138</v>
+        <v>138.1858344887417</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26444,7 +26444,7 @@
         <v>136</v>
       </c>
       <c r="D1800">
-        <v>97.32512652928372</v>
+        <v>97.1457560426645</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26458,7 +26458,7 @@
         <v>137</v>
       </c>
       <c r="D1801">
-        <v>135.2195744888154</v>
+        <v>135.8791926078336</v>
       </c>
     </row>
     <row r="1802" spans="1:4">
@@ -26626,7 +26626,7 @@
         <v>149</v>
       </c>
       <c r="D1813">
-        <v>110.6601360085626</v>
+        <v>112.1762166769505</v>
       </c>
     </row>
     <row r="1814" spans="1:4">
@@ -26654,7 +26654,7 @@
         <v>151</v>
       </c>
       <c r="D1815">
-        <v>119.9655200862338</v>
+        <v>117.6865562264057</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26710,7 +26710,7 @@
         <v>155</v>
       </c>
       <c r="D1819">
-        <v>122.7067425757581</v>
+        <v>123.3777428878007</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -26738,7 +26738,7 @@
         <v>157</v>
       </c>
       <c r="D1821">
-        <v>126.1228148594758</v>
+        <v>128.1907695344055</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -26878,7 +26878,7 @@
         <v>167</v>
       </c>
       <c r="D1831">
-        <v>123.0366439721165</v>
+        <v>121.6511734178279</v>
       </c>
     </row>
     <row r="1832" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>53.008748</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>107.2538560524409</v>
+        <v>96.55919390001979</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27620,7 +27620,7 @@
         <v>220</v>
       </c>
       <c r="D1884">
-        <v>91.82211046486799</v>
+        <v>91.8798254700874</v>
       </c>
     </row>
     <row r="1885" spans="1:4">
@@ -27676,7 +27676,7 @@
         <v>224</v>
       </c>
       <c r="D1888">
-        <v>60.57020661475516</v>
+        <v>61.40003859075949</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>108.8641448869858</v>
+        <v>110.370079</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27760,7 +27760,7 @@
         <v>230</v>
       </c>
       <c r="D1894">
-        <v>120.9013103894136</v>
+        <v>110.0626155939043</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>130.9175144863273</v>
+        <v>130.1555888845191</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>135.7270498148624</v>
+        <v>127.6451092192329</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>116.199393615302</v>
+        <v>115.8348476385119</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>208.4586303388767</v>
+        <v>208.5864324413264</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.2365127743607</v>
+        <v>115.076457865799</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>126.3046644931657</v>
+        <v>125.990257</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28264,7 +28264,7 @@
         <v>266</v>
       </c>
       <c r="D1930">
-        <v>139.2565273026177</v>
+        <v>139.6883567852538</v>
       </c>
     </row>
     <row r="1931" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>121.904938348962</v>
+        <v>125.1823289783585</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28390,7 +28390,7 @@
         <v>275</v>
       </c>
       <c r="D1939">
-        <v>128.9070023347479</v>
+        <v>123.8066354549285</v>
       </c>
     </row>
     <row r="1940" spans="1:4">
@@ -28474,7 +28474,7 @@
         <v>281</v>
       </c>
       <c r="D1945">
-        <v>117.1288784169356</v>
+        <v>112.7242289202733</v>
       </c>
     </row>
     <row r="1946" spans="1:4">
@@ -28488,7 +28488,7 @@
         <v>282</v>
       </c>
       <c r="D1946">
-        <v>139.3842029820814</v>
+        <v>138.7172827167724</v>
       </c>
     </row>
     <row r="1947" spans="1:4">
@@ -28502,7 +28502,7 @@
         <v>283</v>
       </c>
       <c r="D1947">
-        <v>112.8196482960323</v>
+        <v>113.4534798442948</v>
       </c>
     </row>
     <row r="1948" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>115.0608676633074</v>
+        <v>122.270417</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -28670,7 +28670,7 @@
         <v>16</v>
       </c>
       <c r="D1959">
-        <v>168.9586656242562</v>
+        <v>168.9809378830707</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28768,7 +28768,7 @@
         <v>23</v>
       </c>
       <c r="D1966">
-        <v>169.2394985174501</v>
+        <v>168.8249576994628</v>
       </c>
     </row>
     <row r="1967" spans="1:4">
@@ -28852,7 +28852,7 @@
         <v>29</v>
       </c>
       <c r="D1972">
-        <v>288.7995914711202</v>
+        <v>288.8274413045961</v>
       </c>
     </row>
     <row r="1973" spans="1:4">
@@ -28978,7 +28978,7 @@
         <v>38</v>
       </c>
       <c r="D1981">
-        <v>740.9042572955364</v>
+        <v>740.4480974856348</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29202,7 +29202,7 @@
         <v>54</v>
       </c>
       <c r="D1997">
-        <v>392.6714453619129</v>
+        <v>419.6091739797465</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -29216,7 +29216,7 @@
         <v>55</v>
       </c>
       <c r="D1998">
-        <v>197.1190403120919</v>
+        <v>192.1312103446807</v>
       </c>
     </row>
     <row r="1999" spans="1:4">
@@ -29370,7 +29370,7 @@
         <v>66</v>
       </c>
       <c r="D2009">
-        <v>183.0206399537882</v>
+        <v>185.3521130742186</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -29384,7 +29384,7 @@
         <v>67</v>
       </c>
       <c r="D2010">
-        <v>166.4684719597635</v>
+        <v>166.4664142645484</v>
       </c>
     </row>
     <row r="2011" spans="1:4">
@@ -29426,7 +29426,7 @@
         <v>70</v>
       </c>
       <c r="D2013">
-        <v>682.687933455008</v>
+        <v>679.6520782756638</v>
       </c>
     </row>
     <row r="2014" spans="1:4">
@@ -29454,7 +29454,7 @@
         <v>72</v>
       </c>
       <c r="D2015">
-        <v>123.6263465972712</v>
+        <v>122.2205943484663</v>
       </c>
     </row>
     <row r="2016" spans="1:4">
@@ -29552,7 +29552,7 @@
         <v>79</v>
       </c>
       <c r="D2022">
-        <v>186.390215403497</v>
+        <v>186.2207853079836</v>
       </c>
     </row>
     <row r="2023" spans="1:4">
@@ -29650,7 +29650,7 @@
         <v>86</v>
       </c>
       <c r="D2029">
-        <v>117.2245713990279</v>
+        <v>115.3432865899997</v>
       </c>
     </row>
     <row r="2030" spans="1:4">
@@ -29972,7 +29972,7 @@
         <v>109</v>
       </c>
       <c r="D2052">
-        <v>126.6840459173439</v>
+        <v>126.6393856574942</v>
       </c>
     </row>
     <row r="2053" spans="1:4">
@@ -30126,7 +30126,7 @@
         <v>120</v>
       </c>
       <c r="D2063">
-        <v>131.4175650321493</v>
+        <v>131.4604335975975</v>
       </c>
     </row>
     <row r="2064" spans="1:4">
@@ -30350,7 +30350,7 @@
         <v>136</v>
       </c>
       <c r="D2079">
-        <v>110.6008617045262</v>
+        <v>110.397024</v>
       </c>
     </row>
     <row r="2080" spans="1:4">
@@ -30364,7 +30364,7 @@
         <v>137</v>
       </c>
       <c r="D2080">
-        <v>151.9593103406618</v>
+        <v>152.700587</v>
       </c>
     </row>
     <row r="2081" spans="1:4">
@@ -30532,7 +30532,7 @@
         <v>149</v>
       </c>
       <c r="D2092">
-        <v>115.889405706945</v>
+        <v>117.4771291094327</v>
       </c>
     </row>
     <row r="2093" spans="1:4">
@@ -30560,7 +30560,7 @@
         <v>151</v>
       </c>
       <c r="D2094">
-        <v>123.3111782153398</v>
+        <v>121.474907</v>
       </c>
     </row>
     <row r="2095" spans="1:4">
@@ -30616,7 +30616,7 @@
         <v>155</v>
       </c>
       <c r="D2098">
-        <v>151.9355144471381</v>
+        <v>152.7663471745365</v>
       </c>
     </row>
     <row r="2099" spans="1:4">
@@ -30644,7 +30644,7 @@
         <v>157</v>
       </c>
       <c r="D2100">
-        <v>128.5582097695046</v>
+        <v>130.6660960483642</v>
       </c>
     </row>
     <row r="2101" spans="1:4">
@@ -30784,7 +30784,7 @@
         <v>167</v>
       </c>
       <c r="D2110">
-        <v>118.847556215756</v>
+        <v>117.5092574433724</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>53.882335</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>99.71532397354568</v>
+        <v>89.77235557532909</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31526,7 +31526,7 @@
         <v>220</v>
       </c>
       <c r="D2163">
-        <v>103.9420641357284</v>
+        <v>104.0073971665609</v>
       </c>
     </row>
     <row r="2164" spans="1:4">
@@ -31582,7 +31582,7 @@
         <v>224</v>
       </c>
       <c r="D2167">
-        <v>93.39529581828498</v>
+        <v>94.67484243385681</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>128.705306561095</v>
+        <v>130.4857064519637</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>99.66048522390581</v>
+        <v>99.08047211046826</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>113.4480777511115</v>
+        <v>111.2374262758303</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>126.6812888267155</v>
+        <v>126.4407453314673</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>88.94462170956494</v>
+        <v>88.999152</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>111.1333425767813</v>
+        <v>110.8567007299666</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32170,7 +32170,7 @@
         <v>266</v>
       </c>
       <c r="D2209">
-        <v>138.8311493923321</v>
+        <v>139.1150116838103</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>119.0280392083323</v>
+        <v>123.6524274562762</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32296,7 +32296,7 @@
         <v>275</v>
       </c>
       <c r="D2218">
-        <v>113.740208708112</v>
+        <v>109.239935</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -32380,7 +32380,7 @@
         <v>281</v>
       </c>
       <c r="D2224">
-        <v>119.1274570626252</v>
+        <v>114.6476507084504</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -32394,7 +32394,7 @@
         <v>282</v>
       </c>
       <c r="D2225">
-        <v>125.2178134602549</v>
+        <v>124.618676</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -32408,7 +32408,7 @@
         <v>283</v>
       </c>
       <c r="D2226">
-        <v>105.8044150301314</v>
+        <v>106.3988343285818</v>
       </c>
     </row>
     <row r="2227" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>130.4769612940217</v>
+        <v>138.652461</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -32576,7 +32576,7 @@
         <v>16</v>
       </c>
       <c r="D2238">
-        <v>172.0456996829197</v>
+        <v>172.1362289380102</v>
       </c>
     </row>
     <row r="2239" spans="1:4">
@@ -32674,7 +32674,7 @@
         <v>23</v>
       </c>
       <c r="D2245">
-        <v>167.7079352085194</v>
+        <v>166.7360129192438</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -32758,7 +32758,7 @@
         <v>29</v>
       </c>
       <c r="D2251">
-        <v>214.2832203932163</v>
+        <v>214.2966011093012</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>869.1348302221572</v>
+        <v>868.8795211551736</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -33108,7 +33108,7 @@
         <v>54</v>
       </c>
       <c r="D2276">
-        <v>629.5765534109505</v>
+        <v>672.7662544708387</v>
       </c>
     </row>
     <row r="2277" spans="1:4">
@@ -33122,7 +33122,7 @@
         <v>55</v>
       </c>
       <c r="D2277">
-        <v>1462.063102686986</v>
+        <v>1425.06757883357</v>
       </c>
     </row>
     <row r="2278" spans="1:4">
@@ -33276,7 +33276,7 @@
         <v>66</v>
       </c>
       <c r="D2288">
-        <v>170.0741858616352</v>
+        <v>172.240736</v>
       </c>
     </row>
     <row r="2289" spans="1:4">
@@ -33290,7 +33290,7 @@
         <v>67</v>
       </c>
       <c r="D2289">
-        <v>137.9532121168991</v>
+        <v>137.9115903857529</v>
       </c>
     </row>
     <row r="2290" spans="1:4">
@@ -33332,7 +33332,7 @@
         <v>70</v>
       </c>
       <c r="D2292">
-        <v>6729.312291664462</v>
+        <v>6699.387612212923</v>
       </c>
     </row>
     <row r="2293" spans="1:4">
@@ -33360,7 +33360,7 @@
         <v>72</v>
       </c>
       <c r="D2294">
-        <v>1048.651029188289</v>
+        <v>1041.089401659771</v>
       </c>
     </row>
     <row r="2295" spans="1:4">
@@ -33458,7 +33458,7 @@
         <v>79</v>
       </c>
       <c r="D2301">
-        <v>128.0473616706196</v>
+        <v>127.9309845062132</v>
       </c>
     </row>
     <row r="2302" spans="1:4">
@@ -33556,7 +33556,7 @@
         <v>86</v>
       </c>
       <c r="D2308">
-        <v>118.2673310237616</v>
+        <v>117.6549083122283</v>
       </c>
     </row>
     <row r="2309" spans="1:4">
@@ -33570,7 +33570,7 @@
         <v>87</v>
       </c>
       <c r="D2309">
-        <v>105.3494146460844</v>
+        <v>104.59358</v>
       </c>
     </row>
     <row r="2310" spans="1:4">
@@ -34032,7 +34032,7 @@
         <v>120</v>
       </c>
       <c r="D2342">
-        <v>133.1817388663929</v>
+        <v>133.2071671109124</v>
       </c>
     </row>
     <row r="2343" spans="1:4">
@@ -34270,7 +34270,7 @@
         <v>137</v>
       </c>
       <c r="D2359">
-        <v>124.1377026478915</v>
+        <v>124.743262</v>
       </c>
     </row>
     <row r="2360" spans="1:4">
@@ -34438,7 +34438,7 @@
         <v>149</v>
       </c>
       <c r="D2371">
-        <v>125.4958195330441</v>
+        <v>127.215154</v>
       </c>
     </row>
     <row r="2372" spans="1:4">
@@ -34466,7 +34466,7 @@
         <v>151</v>
       </c>
       <c r="D2373">
-        <v>141.5795196053184</v>
+        <v>139.1083287783276</v>
       </c>
     </row>
     <row r="2374" spans="1:4">
@@ -34522,7 +34522,7 @@
         <v>155</v>
       </c>
       <c r="D2377">
-        <v>118.0761622050028</v>
+        <v>118.721841</v>
       </c>
     </row>
     <row r="2378" spans="1:4">
@@ -34550,7 +34550,7 @@
         <v>157</v>
       </c>
       <c r="D2379">
-        <v>118.9896401983639</v>
+        <v>120.9406367963273</v>
       </c>
     </row>
     <row r="2380" spans="1:4">
@@ -34690,7 +34690,7 @@
         <v>167</v>
       </c>
       <c r="D2389">
-        <v>132.7123791555475</v>
+        <v>131.2179536935586</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>60.546817</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>110.9400337997021</v>
+        <v>99.87780979830228</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35432,7 +35432,7 @@
         <v>220</v>
       </c>
       <c r="D2442">
-        <v>96.88071956373894</v>
+        <v>96.9416141697001</v>
       </c>
     </row>
     <row r="2443" spans="1:4">
@@ -35488,7 +35488,7 @@
         <v>224</v>
       </c>
       <c r="D2446">
-        <v>88.55548033994359</v>
+        <v>89.76871987376097</v>
       </c>
     </row>
     <row r="2447" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>114.5058128443997</v>
+        <v>116.089789</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35572,7 +35572,7 @@
         <v>230</v>
       </c>
       <c r="D2452">
-        <v>105.5502498945893</v>
+        <v>96.08776400000001</v>
       </c>
     </row>
     <row r="2453" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>116.8228979717258</v>
+        <v>116.1430014949914</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>114.5632007650729</v>
+        <v>111.7324989940479</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>120.9546871714717</v>
+        <v>120.5778890952799</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>81.93762756712576</v>
+        <v>81.98786200000001</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6166572580548</v>
+        <v>112.460662</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>100.4997758575882</v>
+        <v>100.2496039204084</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36076,7 +36076,7 @@
         <v>266</v>
       </c>
       <c r="D2488">
-        <v>143.7507049734736</v>
+        <v>144.2678264568513</v>
       </c>
     </row>
     <row r="2489" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>105.6399180519093</v>
+        <v>108.349868613219</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36202,7 +36202,7 @@
         <v>275</v>
       </c>
       <c r="D2497">
-        <v>115.2859821697199</v>
+        <v>110.724548</v>
       </c>
     </row>
     <row r="2498" spans="1:4">
@@ -36286,7 +36286,7 @@
         <v>281</v>
       </c>
       <c r="D2503">
-        <v>108.9367066154561</v>
+        <v>104.840125</v>
       </c>
     </row>
     <row r="2504" spans="1:4">
@@ -36300,7 +36300,7 @@
         <v>282</v>
       </c>
       <c r="D2504">
-        <v>142.6994229166894</v>
+        <v>142.016640112362</v>
       </c>
     </row>
     <row r="2505" spans="1:4">
@@ -36314,7 +36314,7 @@
         <v>283</v>
       </c>
       <c r="D2505">
-        <v>111.1576188915066</v>
+        <v>111.782113</v>
       </c>
     </row>
     <row r="2506" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>105.220861930943</v>
+        <v>111.813850587697</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
